--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample01-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample01-from-config-file.xlsx
@@ -6,9 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
+    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Inventory'!$A$1:$E$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory'!$1:$1</definedName>
   </definedNames>
@@ -299,6 +299,13 @@
     <sheetView workbookViewId="0" showGridLines="1" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.3" customWidth="1"/>
+    <col min="2" max="2" width="9.1" customWidth="1"/>
+    <col min="3" max="3" width="9.1" customWidth="1"/>
+    <col min="4" max="4" width="9.1" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -372,21 +379,31 @@
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="14">
-        <f>SUBTOTAL(109,C2:C4)</f>
+        <f>SUBTOTAL(9,C2:C4)</f>
       </c>
       <c r="D5" s="18">
-        <f>SUBTOTAL(109,D2:D4)</f>
+        <f>SUBTOTAL(9,D2:D4)</f>
       </c>
       <c r="E5" s="22">
-        <f>SUBTOTAL(109,E2:E4)</f>
+        <f>SUBTOTAL(9,E2:E4)</f>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CInventory</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample01-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/xlsx/EPPlus/sample01-from-config-file.xlsx
@@ -6,9 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
-    <sheet name="ssss" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Inventory'!$A$1:$E$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Inventory'!$A$1:$E$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Inventory'!$1:$1</definedName>
   </definedNames>
@@ -299,13 +299,6 @@
     <sheetView workbookViewId="0" showGridLines="1" view="pageLayout"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.3" customWidth="1"/>
-    <col min="2" max="2" width="9.1" customWidth="1"/>
-    <col min="3" max="3" width="9.1" customWidth="1"/>
-    <col min="4" max="4" width="9.1" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -379,31 +372,21 @@
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="14">
-        <f>SUBTOTAL(9,C2:C4)</f>
+        <f>SUBTOTAL(109,C2:C4)</f>
       </c>
       <c r="D5" s="18">
-        <f>SUBTOTAL(9,D2:D4)</f>
+        <f>SUBTOTAL(109,D2:D4)</f>
       </c>
       <c r="E5" s="22">
-        <f>SUBTOTAL(9,E2:E4)</f>
+        <f>SUBTOTAL(109,E2:E4)</f>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;CInventory</oddHeader>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-</worksheet>
 </file>